--- a/Charts and Data for Lab 3.xlsx
+++ b/Charts and Data for Lab 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="24560" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="8800" yWindow="0" windowWidth="16800" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,7 +368,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -396,6 +396,10 @@
       <c r="A2" s="2">
         <v>1000000</v>
       </c>
+      <c r="B2">
+        <f>(235.32+237.76+240.74+236.3)/4</f>
+        <v>237.52999999999997</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">

--- a/Charts and Data for Lab 3.xlsx
+++ b/Charts and Data for Lab 3.xlsx
@@ -368,7 +368,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -406,6 +406,10 @@
         <f>A2+5000000</f>
         <v>6000000</v>
       </c>
+      <c r="B3">
+        <f>(1095.69+1072.3+1111.89+1075.16)/4</f>
+        <v>1088.76</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">

--- a/Charts and Data for Lab 3.xlsx
+++ b/Charts and Data for Lab 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8800" yWindow="0" windowWidth="16800" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="8780" yWindow="0" windowWidth="16820" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,7 +368,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -416,23 +416,39 @@
         <f t="shared" ref="A4:A18" si="0">A3+5000000</f>
         <v>11000000</v>
       </c>
+      <c r="B4">
+        <f>(1951.68+1953.69+1949.28+1931.42)/4</f>
+        <v>1946.5174999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>16000000</v>
       </c>
+      <c r="B5">
+        <f>(2889.58+2905.08+2925.95+2863.41)/4</f>
+        <v>2896.0050000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>21000000</v>
       </c>
+      <c r="B6">
+        <f>(3795.92+3790.2+3787.82+3865.28)/4</f>
+        <v>3809.8050000000003</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>26000000</v>
+      </c>
+      <c r="B7">
+        <f>(4881.61+4845.91+4705.75+4663.65)/4</f>
+        <v>4774.2299999999996</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">

--- a/Charts and Data for Lab 3.xlsx
+++ b/Charts and Data for Lab 3.xlsx
@@ -32,13 +32,13 @@
     <t xml:space="preserve">N = </t>
   </si>
   <si>
-    <t>Bentley's Quicksort (miliseconds)</t>
+    <t>Bentley's Quicksort (milliseconds)</t>
   </si>
   <si>
-    <t>Hybrid Quicksort (miliseconds)</t>
+    <t>Hybrid Quicksort (milliseconds)</t>
   </si>
   <si>
-    <t>Library sort() (miliseconds)</t>
+    <t>Library sort() (milliseconds)</t>
   </si>
 </sst>
 </file>
@@ -100,6 +100,1157 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Array Elements vs. Sort Duration </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bentley's Quicksort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6E7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1E7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>237.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1088.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1946.5175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2896.005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3809.805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4774.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5501.1625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6383.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7466.135</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8177.5125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9181.7825</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="l"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2134801584"/>
+        <c:axId val="2134310240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2134801584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Array Elements (Millions)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2134310240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2134310240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sort Duration</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Milliseconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2134801584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -368,7 +1519,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,30 +1607,50 @@
         <f t="shared" si="0"/>
         <v>31000000</v>
       </c>
+      <c r="B8">
+        <f>(5514.46+5504.38+5483.78+5502.03)/4</f>
+        <v>5501.1624999999995</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>36000000</v>
       </c>
+      <c r="B9">
+        <f>(6465.39+6332.78+6354.27+6380.36)/4</f>
+        <v>6383.2000000000007</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>41000000</v>
       </c>
+      <c r="B10">
+        <f>(7442.8+7592.27+7384.46+7445.01)/4</f>
+        <v>7466.1350000000002</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>46000000</v>
       </c>
+      <c r="B11">
+        <f>(8203.39+8117.3+8155.36+8234)/4</f>
+        <v>8177.5124999999998</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>51000000</v>
       </c>
+      <c r="B12">
+        <f>(9101.1+9161.56+9210.98+9253.49)/4</f>
+        <v>9181.7824999999993</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -501,5 +1672,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Charts and Data for Lab 3.xlsx
+++ b/Charts and Data for Lab 3.xlsx
@@ -1519,7 +1519,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1641,6 +1641,10 @@
         <f>(8203.39+8117.3+8155.36+8234)/4</f>
         <v>8177.5124999999998</v>
       </c>
+      <c r="C11">
+        <f>(8208.87+8289.79+8255.8+8195.14)/4</f>
+        <v>8237.4000000000015</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -1650,6 +1654,10 @@
       <c r="B12">
         <f>(9101.1+9161.56+9210.98+9253.49)/4</f>
         <v>9181.7824999999993</v>
+      </c>
+      <c r="C12">
+        <f>(9081.1+9239.55+9291.29+9116.63)/4</f>
+        <v>9182.1424999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">

--- a/Charts and Data for Lab 3.xlsx
+++ b/Charts and Data for Lab 3.xlsx
@@ -1519,7 +1519,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1631,6 +1631,10 @@
         <f>(7442.8+7592.27+7384.46+7445.01)/4</f>
         <v>7466.1350000000002</v>
       </c>
+      <c r="C10">
+        <f>(7405.57+7431.78+7454.09+7396.21)/4</f>
+        <v>7421.9124999999995</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">

--- a/Charts and Data for Lab 3.xlsx
+++ b/Charts and Data for Lab 3.xlsx
@@ -1519,7 +1519,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1611,6 +1611,10 @@
         <f>(5514.46+5504.38+5483.78+5502.03)/4</f>
         <v>5501.1624999999995</v>
       </c>
+      <c r="C8">
+        <f>(5521.49+5579.06+5551.31+5640.15)/4</f>
+        <v>5573.0025000000005</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -1620,6 +1624,10 @@
       <c r="B9">
         <f>(6465.39+6332.78+6354.27+6380.36)/4</f>
         <v>6383.2000000000007</v>
+      </c>
+      <c r="C9">
+        <f>(6556.27+6529.76+6495.75+6564.69)/4</f>
+        <v>6536.6174999999994</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">

--- a/Charts and Data for Lab 3.xlsx
+++ b/Charts and Data for Lab 3.xlsx
@@ -1519,7 +1519,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1591,6 +1591,10 @@
         <f>(3795.92+3790.2+3787.82+3865.28)/4</f>
         <v>3809.8050000000003</v>
       </c>
+      <c r="C6">
+        <f>(3848.51+3795.08+3854.98+3738.84)/4</f>
+        <v>3809.3525</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -1600,6 +1604,10 @@
       <c r="B7">
         <f>(4881.61+4845.91+4705.75+4663.65)/4</f>
         <v>4774.2299999999996</v>
+      </c>
+      <c r="C7">
+        <f>(4569.19+4600.49+4642.91+4650.4)/4</f>
+        <v>4615.7474999999995</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">

--- a/Charts and Data for Lab 3.xlsx
+++ b/Charts and Data for Lab 3.xlsx
@@ -1519,7 +1519,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1580,6 +1580,10 @@
       <c r="B5">
         <f>(2889.58+2905.08+2925.95+2863.41)/4</f>
         <v>2896.0050000000001</v>
+      </c>
+      <c r="C5">
+        <f>(2814.49+2817.53+2808.62+2801.45)/4</f>
+        <v>2810.5225</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">

--- a/Charts and Data for Lab 3.xlsx
+++ b/Charts and Data for Lab 3.xlsx
@@ -1519,7 +1519,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1570,6 +1570,10 @@
       <c r="B4">
         <f>(1951.68+1953.69+1949.28+1931.42)/4</f>
         <v>1946.5174999999999</v>
+      </c>
+      <c r="C4">
+        <f>(1967.31+1979.68+1966.46+1981.93)/4</f>
+        <v>1973.845</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/Charts and Data for Lab 3.xlsx
+++ b/Charts and Data for Lab 3.xlsx
@@ -1519,7 +1519,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1551,6 +1551,10 @@
         <f>(235.32+237.76+240.74+236.3)/4</f>
         <v>237.52999999999997</v>
       </c>
+      <c r="C2">
+        <f>(240.81+214.91+237.82+229.67)/4</f>
+        <v>230.80249999999998</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -1560,6 +1564,10 @@
       <c r="B3">
         <f>(1095.69+1072.3+1111.89+1075.16)/4</f>
         <v>1088.76</v>
+      </c>
+      <c r="C3">
+        <f>(1063.61+1065.32+1066.02+1056.84)/4</f>
+        <v>1062.9475</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">

--- a/Charts and Data for Lab 3.xlsx
+++ b/Charts and Data for Lab 3.xlsx
@@ -1519,7 +1519,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1555,6 +1555,10 @@
         <f>(240.81+214.91+237.82+229.67)/4</f>
         <v>230.80249999999998</v>
       </c>
+      <c r="D2">
+        <f>(143.56+130.53+127.1+161.22)/4</f>
+        <v>140.60250000000002</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -1568,6 +1572,10 @@
       <c r="C3">
         <f>(1063.61+1065.32+1066.02+1056.84)/4</f>
         <v>1062.9475</v>
+      </c>
+      <c r="D3">
+        <f>(555.56+543.91+563.69+540.21)/4</f>
+        <v>550.84249999999997</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">

--- a/Charts and Data for Lab 3.xlsx
+++ b/Charts and Data for Lab 3.xlsx
@@ -1519,7 +1519,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1591,6 +1591,10 @@
         <f>(1967.31+1979.68+1966.46+1981.93)/4</f>
         <v>1973.845</v>
       </c>
+      <c r="D4">
+        <f>(1012.22+1030.54+1037.31+1026.34)/4</f>
+        <v>1026.6025</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -1605,6 +1609,10 @@
         <f>(2814.49+2817.53+2808.62+2801.45)/4</f>
         <v>2810.5225</v>
       </c>
+      <c r="D5">
+        <f>(1448.41+1441.31+1443.58+1471.78)/4</f>
+        <v>1451.27</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -1619,6 +1627,10 @@
         <f>(3848.51+3795.08+3854.98+3738.84)/4</f>
         <v>3809.3525</v>
       </c>
+      <c r="D6">
+        <f>(1935.08+1940.19+1945.45+1955.06)/4</f>
+        <v>1943.9450000000002</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -1633,6 +1645,10 @@
         <f>(4569.19+4600.49+4642.91+4650.4)/4</f>
         <v>4615.7474999999995</v>
       </c>
+      <c r="D7">
+        <f>(2310.41+2366.83+2329.81+2404.17)/4</f>
+        <v>2352.8049999999998</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -1647,6 +1663,10 @@
         <f>(5521.49+5579.06+5551.31+5640.15)/4</f>
         <v>5573.0025000000005</v>
       </c>
+      <c r="D8">
+        <f>(2828.49+2869.58+2839.61+2871.57)/4</f>
+        <v>2852.3125</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -1661,6 +1681,10 @@
         <f>(6556.27+6529.76+6495.75+6564.69)/4</f>
         <v>6536.6174999999994</v>
       </c>
+      <c r="D9">
+        <f>(3374.9+3319.1+3342.85+3325.54)/4</f>
+        <v>3340.5974999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -1675,6 +1699,10 @@
         <f>(7405.57+7431.78+7454.09+7396.21)/4</f>
         <v>7421.9124999999995</v>
       </c>
+      <c r="D10">
+        <f>(3806.84+3797.08+3790.13+3784.73)/4</f>
+        <v>3794.6949999999997</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -1689,6 +1717,10 @@
         <f>(8208.87+8289.79+8255.8+8195.14)/4</f>
         <v>8237.4000000000015</v>
       </c>
+      <c r="D11">
+        <f>(4265.74+4269.66+4260.07+4208.32)/4</f>
+        <v>4250.9475000000002</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -1702,6 +1734,10 @@
       <c r="C12">
         <f>(9081.1+9239.55+9291.29+9116.63)/4</f>
         <v>9182.1424999999999</v>
+      </c>
+      <c r="D12">
+        <f>(4833.95+4818.71+4827.84+4819.12)/4</f>
+        <v>4824.9049999999997</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
